--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,17 +501,17 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M2" t="n">
         <v>1450</v>
       </c>
-      <c r="K2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1650</v>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M3" t="n">
         <v>1450</v>
       </c>
-      <c r="K3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1650</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,17 +501,17 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M2" t="n">
         <v>1450</v>
       </c>
-      <c r="K2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1650</v>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M3" t="n">
         <v>1450</v>
       </c>
-      <c r="K3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1650</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,17 +645,17 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M4" t="n">
         <v>1450</v>
       </c>
-      <c r="K4" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1650</v>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44537</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>800</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L2" t="n">
         <v>1400</v>
       </c>
-      <c r="K2" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2000</v>
-      </c>
       <c r="M2" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,12 +667,84 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>1450</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M3" t="n">
         <v>1450</v>
       </c>
-      <c r="K3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1650</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" t="n">
         <v>1400</v>
       </c>
-      <c r="L3" t="n">
-        <v>1500</v>
-      </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K4" t="n">
         <v>1400</v>
       </c>
-      <c r="K4" t="n">
-        <v>1900</v>
-      </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L5" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L4" t="n">
         <v>1400</v>
       </c>
-      <c r="L4" t="n">
-        <v>1500</v>
-      </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K5" t="n">
         <v>1400</v>
       </c>
-      <c r="K5" t="n">
-        <v>1900</v>
-      </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44537</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,34 +717,106 @@
         </is>
       </c>
       <c r="J5" t="n">
+        <v>800</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>1500</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K6" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>1500</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>1450</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>1450</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44638</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L2" t="n">
         <v>1400</v>
       </c>
-      <c r="L2" t="n">
-        <v>1500</v>
-      </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44537</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44210</v>
+        <v>44537</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44537</v>
+        <v>44638</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -648,13 +648,13 @@
         <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="J6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M6" t="n">
         <v>1450</v>
       </c>
-      <c r="K6" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1650</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K2" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44638</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K4" t="n">
         <v>1400</v>
       </c>
-      <c r="K4" t="n">
-        <v>1900</v>
-      </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44638</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K5" t="n">
         <v>1400</v>
       </c>
-      <c r="K5" t="n">
-        <v>1900</v>
-      </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44638</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M3" t="n">
         <v>1450</v>
       </c>
-      <c r="K3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1650</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44537</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>800</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L4" t="n">
         <v>1400</v>
       </c>
-      <c r="K4" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2000</v>
-      </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44537</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44638</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" t="n">
         <v>1400</v>
       </c>
-      <c r="L3" t="n">
-        <v>1500</v>
-      </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44537</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L5" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>44210</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44638</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K5" t="n">
         <v>1400</v>
       </c>
-      <c r="K5" t="n">
-        <v>1900</v>
-      </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K6" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L6" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,17 +573,17 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M3" t="n">
         <v>1450</v>
       </c>
-      <c r="K3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1650</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44638</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44175</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>44537</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>44638</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -720,13 +720,13 @@
         <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44537</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44638</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,17 +645,17 @@
         </is>
       </c>
       <c r="J4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M4" t="n">
         <v>1450</v>
       </c>
-      <c r="K4" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1650</v>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44638</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L6" t="n">
         <v>1400</v>
       </c>
-      <c r="L6" t="n">
-        <v>1500</v>
-      </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44883</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
         <v>1400</v>
@@ -654,7 +654,7 @@
         <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,17 +717,17 @@
         </is>
       </c>
       <c r="J5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M5" t="n">
         <v>1450</v>
       </c>
-      <c r="K5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1650</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,34 +789,106 @@
         </is>
       </c>
       <c r="J6" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>800</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>1300</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L7" t="n">
         <v>1400</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>1350</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1350</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44638</v>
+        <v>44883</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44883</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>290</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44210</v>
+        <v>44537</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L6" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M6" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44537</v>
+        <v>44638</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,13 +864,13 @@
         <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44537</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L6" t="n">
         <v>1300</v>
       </c>
-      <c r="L6" t="n">
-        <v>1400</v>
-      </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -864,31 +864,103 @@
         <v>800</v>
       </c>
       <c r="K7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>800</v>
+      </c>
+      <c r="K8" t="n">
         <v>2500</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>2800</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>2650</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>2650</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
         <v>1200</v>
@@ -798,7 +798,7 @@
         <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44537</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L7" t="n">
         <v>1300</v>
       </c>
-      <c r="L7" t="n">
-        <v>1400</v>
-      </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -936,31 +936,103 @@
         <v>800</v>
       </c>
       <c r="K8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>800</v>
+      </c>
+      <c r="K9" t="n">
         <v>2500</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>2800</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M9" t="n">
         <v>2650</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>2650</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K2" t="n">
         <v>1400</v>
       </c>
-      <c r="K2" t="n">
-        <v>1900</v>
-      </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44883</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44895</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1255</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1255</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44895</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44893</v>
+        <v>44883</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3300</v>
+        <v>290</v>
       </c>
       <c r="K7" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L7" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44537</v>
+        <v>44893</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L8" t="n">
         <v>1300</v>
       </c>
-      <c r="L8" t="n">
-        <v>1400</v>
-      </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1008,13 +1008,13 @@
         <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44883</v>
+        <v>44907</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>290</v>
+        <v>2300</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M7" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44893</v>
+        <v>44883</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3300</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44537</v>
+        <v>44893</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,34 +1005,106 @@
         </is>
       </c>
       <c r="J9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1261</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>1261</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>800</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1300</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>1400</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>1350</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1350</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44895</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K5" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44907</v>
+        <v>44638</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M7" t="n">
-        <v>952</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>952</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44883</v>
+        <v>44907</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>2300</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
         <v>1200</v>
@@ -1014,7 +1014,7 @@
         <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44537</v>
+        <v>44883</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44537</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
+        <v>800</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L2" t="n">
         <v>1400</v>
       </c>
-      <c r="K2" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2000</v>
-      </c>
       <c r="M2" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44210</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1450</v>
+        <v>2300</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44638</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44638</v>
+        <v>44883</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L7" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44907</v>
+        <v>44895</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M8" t="n">
-        <v>952</v>
+        <v>1255</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>952</v>
+        <v>1255</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1255</v>
+        <v>1950</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1255</v>
+        <v>1950</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44883</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>3300</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M10" t="n">
-        <v>1434</v>
+        <v>1261</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1434</v>
+        <v>1261</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44537</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44638</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44883</v>
+        <v>44638</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>290</v>
+        <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M7" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44895</v>
+        <v>44907</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1255</v>
+        <v>952</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1255</v>
+        <v>952</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1950</v>
+        <v>1255</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1950</v>
+        <v>1255</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44883</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>3300</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44537</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L2" t="n">
         <v>1300</v>
       </c>
-      <c r="L2" t="n">
-        <v>1400</v>
-      </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>44537</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>952</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>952</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44638</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44883</v>
+        <v>44907</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>290</v>
+        <v>2300</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M7" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44895</v>
+        <v>44883</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1255</v>
+        <v>1434</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1255</v>
+        <v>1434</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K9" t="n">
         <v>1400</v>
       </c>
-      <c r="K9" t="n">
-        <v>1900</v>
-      </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44175</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44883</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1255</v>
+        <v>1434</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1255</v>
+        <v>1434</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44638</v>
+        <v>44895</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>2650</v>
+        <v>1255</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2650</v>
+        <v>1255</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44537</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L4" t="n">
         <v>1300</v>
       </c>
-      <c r="L4" t="n">
-        <v>1400</v>
-      </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>44175</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K7" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44883</v>
+        <v>44200</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K8" t="n">
         <v>1400</v>
@@ -942,7 +942,7 @@
         <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44200</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44175</v>
+        <v>44537</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
+        <v>800</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L10" t="n">
         <v>1400</v>
       </c>
-      <c r="K10" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2000</v>
-      </c>
       <c r="M10" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44883</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K2" t="n">
         <v>1400</v>
@@ -510,7 +510,7 @@
         <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44895</v>
+        <v>44638</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>44537</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1261</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1261</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44638</v>
+        <v>44893</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L5" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="M5" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K6" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M6" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44210</v>
+        <v>44895</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1450</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="L7" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="M7" t="n">
-        <v>1650</v>
+        <v>1255</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1650</v>
+        <v>1255</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44537</v>
+        <v>44883</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -576,13 +576,13 @@
         <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44537</v>
+        <v>44895</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L4" t="n">
         <v>1300</v>
       </c>
-      <c r="L4" t="n">
-        <v>1400</v>
-      </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44893</v>
+        <v>44883</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3300</v>
+        <v>290</v>
       </c>
       <c r="K5" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="J6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M6" t="n">
         <v>1450</v>
       </c>
-      <c r="K6" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1650</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44895</v>
+        <v>44638</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L7" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M7" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44883</v>
+        <v>44210</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>1450</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M10" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>1200</v>
@@ -510,7 +510,7 @@
         <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L3" t="n">
         <v>1300</v>
       </c>
-      <c r="L3" t="n">
-        <v>1400</v>
-      </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44895</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1255</v>
+        <v>1950</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1255</v>
+        <v>1950</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44883</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44907</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44638</v>
+        <v>44200</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L7" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44175</v>
+        <v>44537</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
+        <v>800</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L8" t="n">
         <v>1400</v>
       </c>
-      <c r="K8" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2000</v>
-      </c>
       <c r="M8" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44907</v>
+        <v>44883</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2300</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M10" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44893</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1261</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1261</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44638</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44210</v>
+        <v>44907</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1450</v>
+        <v>2300</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="L5" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K6" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M6" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44537</v>
+        <v>44893</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L8" t="n">
         <v>1300</v>
       </c>
-      <c r="L8" t="n">
-        <v>1400</v>
-      </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1261</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44883</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1434</v>
+        <v>1255</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1434</v>
+        <v>1255</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44638</v>
+        <v>44883</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44907</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44883</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44638</v>
+        <v>44210</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44907</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="K5" t="n">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>952</v>
+        <v>1950</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>952</v>
+        <v>1950</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44210</v>
+        <v>44537</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L6" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M6" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>44895</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M7" t="n">
-        <v>1950</v>
+        <v>1255</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1950</v>
+        <v>1255</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44893</v>
+        <v>44638</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M8" t="n">
-        <v>1261</v>
+        <v>2650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1261</v>
+        <v>2650</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="K9" t="n">
         <v>1200</v>
@@ -1014,7 +1014,7 @@
         <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44883</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K10" t="n">
         <v>1400</v>
@@ -1086,7 +1086,7 @@
         <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44893</v>
+        <v>45062</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M9" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,34 +1077,106 @@
         </is>
       </c>
       <c r="J10" t="n">
+        <v>3300</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1261</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1261</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>1500</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1400</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>1500</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>1450</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1450</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44907</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="L2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>952</v>
+        <v>1950</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>952</v>
+        <v>1950</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44883</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K3" t="n">
         <v>1400</v>
@@ -582,7 +582,7 @@
         <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44210</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1450</v>
+        <v>3300</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1261</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>1261</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44537</v>
+        <v>44895</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L6" t="n">
         <v>1300</v>
       </c>
-      <c r="L6" t="n">
-        <v>1400</v>
-      </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44895</v>
+        <v>45062</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="K7" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L7" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M7" t="n">
-        <v>1255</v>
+        <v>2900</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1255</v>
+        <v>2900</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44638</v>
+        <v>44883</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45062</v>
+        <v>44537</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>2900</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2900</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>1261</v>
+        <v>952</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1261</v>
+        <v>952</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44200</v>
+        <v>44638</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M11" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" t="n">
         <v>1400</v>
       </c>
-      <c r="L3" t="n">
-        <v>1500</v>
-      </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>45062</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44210</v>
+        <v>44883</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1450</v>
+        <v>290</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1650</v>
+        <v>1434</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1650</v>
+        <v>1434</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44895</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45062</v>
+        <v>44638</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K7" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L7" t="n">
         <v>2800</v>
       </c>
-      <c r="L7" t="n">
-        <v>3000</v>
-      </c>
       <c r="M7" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44883</v>
+        <v>44907</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>2300</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44537</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L9" t="n">
         <v>1300</v>
       </c>
-      <c r="L9" t="n">
-        <v>1400</v>
-      </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K10" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M10" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44638</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45062</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="K4" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>2900</v>
+        <v>1261</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2900</v>
+        <v>1261</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44883</v>
+        <v>44210</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>1450</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M5" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44895</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1255</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1255</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44638</v>
+        <v>45062</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L7" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>2900</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>2900</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44907</v>
+        <v>44883</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2300</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>44537</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>1255</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1255</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44210</v>
+        <v>44907</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1450</v>
+        <v>2300</v>
       </c>
       <c r="K10" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="L10" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44638</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M11" t="n">
-        <v>1261</v>
+        <v>2650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1261</v>
+        <v>2650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44638</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44907</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>952</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>952</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45062</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="K4" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>2900</v>
+        <v>1261</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2900</v>
+        <v>1261</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44883</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>1400</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1434</v>
+        <v>1950</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1434</v>
+        <v>1950</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44883</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>290</v>
       </c>
       <c r="K6" t="n">
         <v>1400</v>
@@ -798,7 +798,7 @@
         <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44638</v>
+        <v>44210</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K7" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>1650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44907</v>
+        <v>44895</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M8" t="n">
-        <v>952</v>
+        <v>1255</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>952</v>
+        <v>1255</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>44537</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>1255</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1255</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44210</v>
+        <v>45062</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1450</v>
+        <v>1700</v>
       </c>
       <c r="K10" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L10" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>1650</v>
+        <v>2900</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1650</v>
+        <v>2900</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44200</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44638</v>
+        <v>44537</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -504,13 +504,13 @@
         <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44907</v>
+        <v>44895</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>952</v>
+        <v>1255</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>952</v>
+        <v>1255</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K5" t="n">
         <v>1400</v>
       </c>
-      <c r="K5" t="n">
-        <v>1900</v>
-      </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44883</v>
+        <v>45062</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>290</v>
+        <v>1700</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="n">
-        <v>1434</v>
+        <v>2900</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1434</v>
+        <v>2900</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44210</v>
+        <v>44907</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1450</v>
+        <v>2300</v>
       </c>
       <c r="K7" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="L7" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M7" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1650</v>
+        <v>952</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44895</v>
+        <v>44175</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1255</v>
+        <v>1950</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1255</v>
+        <v>1950</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44537</v>
+        <v>44883</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45062</v>
+        <v>44638</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L10" t="n">
         <v>2800</v>
       </c>
-      <c r="L10" t="n">
-        <v>3000</v>
-      </c>
       <c r="M10" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M11" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44537</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="K3" t="n">
         <v>1200</v>
@@ -582,7 +582,7 @@
         <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>44883</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3300</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1261</v>
+        <v>1434</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45062</v>
+        <v>44895</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K7" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44175</v>
+        <v>44907</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="K8" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1950</v>
+        <v>952</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1950</v>
+        <v>952</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44883</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>1400</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1434</v>
+        <v>1950</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1434</v>
+        <v>1950</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44638</v>
+        <v>45062</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K10" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L10" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>2650</v>
+        <v>2900</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2650</v>
+        <v>2900</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M11" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44638</v>
+        <v>45132</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,34 +1149,106 @@
         </is>
       </c>
       <c r="J11" t="n">
+        <v>170</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2359</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>2359</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>800</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>2500</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>2800</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>2650</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>2650</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44200</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1255</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1255</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44893</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44883</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>290</v>
+        <v>2300</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44895</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44210</v>
+        <v>45132</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1450</v>
+        <v>170</v>
       </c>
       <c r="K7" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="L7" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>1650</v>
+        <v>2359</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1650</v>
+        <v>2359</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="K8" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M8" t="n">
-        <v>952</v>
+        <v>1261</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>952</v>
+        <v>1261</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K9" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M9" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45132</v>
+        <v>44175</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>170</v>
+        <v>1400</v>
       </c>
       <c r="K11" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>2359</v>
+        <v>1950</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2359</v>
+        <v>1950</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44638</v>
+        <v>44883</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44200</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1255</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1261</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>44883</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2300</v>
+        <v>290</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>44895</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>1255</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>1255</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45132</v>
+        <v>44210</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>170</v>
+        <v>1450</v>
       </c>
       <c r="K7" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>2359</v>
+        <v>1650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2359</v>
+        <v>1650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1261</v>
+        <v>952</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1261</v>
+        <v>952</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K9" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L9" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44175</v>
+        <v>45132</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1400</v>
+        <v>170</v>
       </c>
       <c r="K11" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>1950</v>
+        <v>2359</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1950</v>
+        <v>2359</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44883</v>
+        <v>44638</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>290</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M12" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44895</v>
+        <v>44210</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>1450</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1255</v>
+        <v>1650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1255</v>
+        <v>1650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" t="n">
         <v>1400</v>
       </c>
-      <c r="L3" t="n">
-        <v>1500</v>
-      </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>45132</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2300</v>
+        <v>170</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>952</v>
+        <v>2359</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>952</v>
+        <v>2359</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>44907</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>952</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>952</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45132</v>
+        <v>44895</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="L7" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="M7" t="n">
-        <v>2359</v>
+        <v>1255</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2359</v>
+        <v>1255</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44893</v>
+        <v>45062</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M8" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44210</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="K9" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L9" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45062</v>
+        <v>44883</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1700</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44175</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1400</v>
+        <v>3300</v>
       </c>
       <c r="K11" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>1950</v>
+        <v>1261</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1950</v>
+        <v>1261</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44883</v>
+        <v>44638</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>290</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M12" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1450</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>1255</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>1255</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44200</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45132</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>170</v>
+        <v>2300</v>
       </c>
       <c r="K4" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>2359</v>
+        <v>952</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2359</v>
+        <v>952</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44907</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>952</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>952</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44895</v>
+        <v>45132</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K7" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="L7" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="M7" t="n">
-        <v>1255</v>
+        <v>2359</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1255</v>
+        <v>2359</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>44893</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="K8" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L8" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M8" t="n">
-        <v>2900</v>
+        <v>1261</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2900</v>
+        <v>1261</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="K9" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M9" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44883</v>
+        <v>45062</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>1700</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>1434</v>
+        <v>2900</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1434</v>
+        <v>2900</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44175</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44638</v>
+        <v>44883</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2650</v>
+        <v>1434</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44210</v>
+        <v>45062</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1450</v>
+        <v>1700</v>
       </c>
       <c r="K2" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L2" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M2" t="n">
-        <v>1650</v>
+        <v>2900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1650</v>
+        <v>2900</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45132</v>
+        <v>44638</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M4" t="n">
-        <v>2359</v>
+        <v>2650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2359</v>
+        <v>2650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>45132</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>170</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>2359</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>2359</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="K7" t="n">
         <v>1200</v>
@@ -870,7 +870,7 @@
         <v>1300</v>
       </c>
       <c r="M7" t="n">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>44883</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1700</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44883</v>
+        <v>44537</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L10" t="n">
         <v>1400</v>
       </c>
-      <c r="L10" t="n">
-        <v>1500</v>
-      </c>
       <c r="M10" t="n">
-        <v>1434</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1434</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
         <v>1200</v>
@@ -1158,7 +1158,7 @@
         <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44638</v>
+        <v>44200</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45062</v>
+        <v>45132</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1700</v>
+        <v>170</v>
       </c>
       <c r="K2" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L2" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M2" t="n">
-        <v>2900</v>
+        <v>2359</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2900</v>
+        <v>2359</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44210</v>
+        <v>44638</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="M3" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1650</v>
+        <v>2650</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44638</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K4" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1261</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45132</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="M5" t="n">
-        <v>2359</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2359</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K6" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M6" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44893</v>
+        <v>44200</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="K7" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L7" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1261</v>
+        <v>1450</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="K9" t="n">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>1950</v>
+        <v>952</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1950</v>
+        <v>952</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44537</v>
+        <v>44895</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L10" t="n">
         <v>1300</v>
       </c>
-      <c r="L10" t="n">
-        <v>1400</v>
-      </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44895</v>
+        <v>45062</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M11" t="n">
-        <v>1255</v>
+        <v>2900</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1255</v>
+        <v>2900</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44210</v>
+        <v>45203</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44883</v>
+        <v>44200</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K8" t="n">
         <v>1400</v>
@@ -942,7 +942,7 @@
         <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44907</v>
+        <v>44883</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2300</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44895</v>
+        <v>44907</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>1255</v>
+        <v>952</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1255</v>
+        <v>952</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45062</v>
+        <v>44895</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44175</v>
+        <v>45062</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,34 +1221,106 @@
         </is>
       </c>
       <c r="J12" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>2900</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>1400</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>1900</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>2000</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M13" t="n">
         <v>1950</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>1950</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,6 +1326,78 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1650</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44175</v>
+        <v>45205</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K13" t="n">
         <v>1400</v>
       </c>
-      <c r="K13" t="n">
-        <v>1900</v>
-      </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1950</v>
+        <v>1457</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1950</v>
+        <v>1457</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45204</v>
+        <v>44175</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,34 +1365,106 @@
         </is>
       </c>
       <c r="J14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1900</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1950</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>1200</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>1600</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>1700</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M15" t="n">
         <v>1650</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>1650</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44210</v>
+        <v>45210</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1450</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L7" t="n">
         <v>1600</v>
       </c>
-      <c r="L7" t="n">
-        <v>1700</v>
-      </c>
       <c r="M7" t="n">
-        <v>1650</v>
+        <v>1536</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1650</v>
+        <v>1536</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M8" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1450</v>
+        <v>1650</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44883</v>
+        <v>44200</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K9" t="n">
         <v>1400</v>
@@ -1014,7 +1014,7 @@
         <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44907</v>
+        <v>44883</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2300</v>
+        <v>290</v>
       </c>
       <c r="K10" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44895</v>
+        <v>44907</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M11" t="n">
-        <v>1255</v>
+        <v>952</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1255</v>
+        <v>952</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45062</v>
+        <v>44895</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L12" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M12" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45205</v>
+        <v>45062</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M13" t="n">
-        <v>1457</v>
+        <v>2900</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1457</v>
+        <v>2900</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44175</v>
+        <v>45205</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K14" t="n">
         <v>1400</v>
       </c>
-      <c r="K14" t="n">
-        <v>1900</v>
-      </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M14" t="n">
-        <v>1950</v>
+        <v>1457</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1950</v>
+        <v>1457</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45204</v>
+        <v>44175</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,34 +1437,106 @@
         </is>
       </c>
       <c r="J15" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1900</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>1950</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>1200</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>1600</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>1700</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M16" t="n">
         <v>1650</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1650</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1542,6 +1542,78 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>750</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45132</v>
+        <v>45210</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>170</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>2359</v>
+        <v>1536</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2359</v>
+        <v>1536</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44638</v>
+        <v>44907</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K3" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="L3" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M3" t="n">
-        <v>2650</v>
+        <v>952</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2650</v>
+        <v>952</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>45132</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3300</v>
+        <v>170</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>1261</v>
+        <v>2359</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1261</v>
+        <v>2359</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>44895</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L5" t="n">
         <v>1300</v>
       </c>
-      <c r="L5" t="n">
-        <v>1400</v>
-      </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1255</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45203</v>
+        <v>44537</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M6" t="n">
-        <v>1900</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1900</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45210</v>
+        <v>45204</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>1536</v>
+        <v>1650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1536</v>
+        <v>1650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44210</v>
+        <v>45212</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1450</v>
+        <v>750</v>
       </c>
       <c r="K8" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1650</v>
+        <v>1440</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1650</v>
+        <v>1440</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44200</v>
+        <v>45062</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M9" t="n">
-        <v>1450</v>
+        <v>2900</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1450</v>
+        <v>2900</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44883</v>
+        <v>44200</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>1500</v>
       </c>
       <c r="K10" t="n">
         <v>1400</v>
@@ -1086,7 +1086,7 @@
         <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1434</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K11" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L11" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M11" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44895</v>
+        <v>45205</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="K12" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>1255</v>
+        <v>1457</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1255</v>
+        <v>1457</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45062</v>
+        <v>44638</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L13" t="n">
         <v>2800</v>
       </c>
-      <c r="L13" t="n">
-        <v>3000</v>
-      </c>
       <c r="M13" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2900</v>
+        <v>2650</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45205</v>
+        <v>44175</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="K14" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>1457</v>
+        <v>1950</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1457</v>
+        <v>1950</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44175</v>
+        <v>45203</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K15" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L15" t="n">
         <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45204</v>
+        <v>44883</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1200</v>
+        <v>290</v>
       </c>
       <c r="K16" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L16" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>1650</v>
+        <v>1434</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1650</v>
+        <v>1434</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45212</v>
+        <v>44893</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>750</v>
+        <v>3300</v>
       </c>
       <c r="K17" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>1440</v>
+        <v>1261</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1440</v>
+        <v>1261</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45210</v>
+        <v>45203</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1536</v>
+        <v>1900</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1536</v>
+        <v>1900</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44907</v>
+        <v>44883</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2300</v>
+        <v>290</v>
       </c>
       <c r="K3" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>952</v>
+        <v>1434</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45132</v>
+        <v>45204</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>170</v>
+        <v>1200</v>
       </c>
       <c r="K4" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>2359</v>
+        <v>1650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2359</v>
+        <v>1650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44895</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M5" t="n">
-        <v>1255</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1255</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44537</v>
+        <v>44200</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45204</v>
+        <v>45210</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L7" t="n">
         <v>1600</v>
       </c>
-      <c r="L7" t="n">
-        <v>1700</v>
-      </c>
       <c r="M7" t="n">
-        <v>1650</v>
+        <v>1536</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1650</v>
+        <v>1536</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45212</v>
+        <v>44893</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>750</v>
+        <v>3300</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M8" t="n">
-        <v>1440</v>
+        <v>1261</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1440</v>
+        <v>1261</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45062</v>
+        <v>44210</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L9" t="n">
         <v>1700</v>
       </c>
-      <c r="K9" t="n">
-        <v>2800</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3000</v>
-      </c>
       <c r="M9" t="n">
-        <v>2900</v>
+        <v>1650</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2900</v>
+        <v>1650</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44200</v>
+        <v>44907</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44210</v>
+        <v>45132</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1450</v>
+        <v>170</v>
       </c>
       <c r="K11" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="L11" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M11" t="n">
-        <v>1650</v>
+        <v>2359</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1650</v>
+        <v>2359</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45205</v>
+        <v>44638</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M12" t="n">
-        <v>1457</v>
+        <v>2650</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1457</v>
+        <v>2650</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44638</v>
+        <v>45205</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L13" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>2650</v>
+        <v>1457</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2650</v>
+        <v>1457</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44175</v>
+        <v>44895</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M14" t="n">
-        <v>1950</v>
+        <v>1255</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1950</v>
+        <v>1255</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45203</v>
+        <v>45062</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K15" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44883</v>
+        <v>45212</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>290</v>
+        <v>750</v>
       </c>
       <c r="K16" t="n">
         <v>1400</v>
@@ -1518,7 +1518,7 @@
         <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44893</v>
+        <v>44175</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="K17" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L17" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45203</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1900</v>
+        <v>1261</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1900</v>
+        <v>1261</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44883</v>
+        <v>45210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1434</v>
+        <v>1536</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1434</v>
+        <v>1536</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45204</v>
+        <v>45203</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>45205</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1457</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1457</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1950</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45210</v>
+        <v>45204</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>1536</v>
+        <v>1650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1536</v>
+        <v>1650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44893</v>
+        <v>45062</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M8" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1261</v>
+        <v>2900</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44210</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1450</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1650</v>
+        <v>1255</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1650</v>
+        <v>1255</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44907</v>
+        <v>44210</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2300</v>
+        <v>1450</v>
       </c>
       <c r="K10" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M10" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>952</v>
+        <v>1650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45132</v>
+        <v>45212</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>170</v>
+        <v>750</v>
       </c>
       <c r="K11" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>2359</v>
+        <v>1440</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2359</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44638</v>
+        <v>44200</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45205</v>
+        <v>44537</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="K13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L13" t="n">
         <v>1400</v>
       </c>
-      <c r="L13" t="n">
-        <v>1500</v>
-      </c>
       <c r="M13" t="n">
-        <v>1457</v>
+        <v>1350</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1457</v>
+        <v>1350</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44895</v>
+        <v>45132</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K14" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="L14" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>1255</v>
+        <v>2359</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1255</v>
+        <v>2359</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45062</v>
+        <v>44907</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="K15" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M15" t="n">
-        <v>2900</v>
+        <v>952</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2900</v>
+        <v>952</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45212</v>
+        <v>44883</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>750</v>
+        <v>290</v>
       </c>
       <c r="K16" t="n">
         <v>1400</v>
@@ -1518,7 +1518,7 @@
         <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44175</v>
+        <v>44638</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="K17" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M17" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1950</v>
+        <v>2650</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44537</v>
+        <v>45233</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>800</v>
+        <v>1050</v>
       </c>
       <c r="K13" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L13" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1350</v>
+        <v>1438</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1350</v>
+        <v>1438</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45132</v>
+        <v>44537</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="M14" t="n">
-        <v>2359</v>
+        <v>1350</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2359</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44907</v>
+        <v>45132</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2300</v>
+        <v>170</v>
       </c>
       <c r="K15" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="L15" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>952</v>
+        <v>2359</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>952</v>
+        <v>2359</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44883</v>
+        <v>44907</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>290</v>
+        <v>2300</v>
       </c>
       <c r="K16" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1434</v>
+        <v>952</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44638</v>
+        <v>44883</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,34 +1581,106 @@
         </is>
       </c>
       <c r="J17" t="n">
+        <v>290</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1434</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1434</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>800</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>2500</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>2800</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M18" t="n">
         <v>2650</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>2650</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44893</v>
+        <v>45212</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3300</v>
+        <v>750</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1261</v>
+        <v>1440</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1261</v>
+        <v>1440</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45210</v>
+        <v>45132</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>1536</v>
+        <v>2359</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1536</v>
+        <v>2359</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1900</v>
+        <v>1457</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1900</v>
+        <v>1457</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45205</v>
+        <v>44537</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1457</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1457</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>44883</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1700</v>
+        <v>290</v>
       </c>
       <c r="K8" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44895</v>
+        <v>45062</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M9" t="n">
-        <v>1255</v>
+        <v>2900</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1255</v>
+        <v>2900</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44210</v>
+        <v>45203</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L10" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45212</v>
+        <v>44638</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M11" t="n">
-        <v>1440</v>
+        <v>2650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1440</v>
+        <v>2650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44200</v>
+        <v>44907</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M12" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45233</v>
+        <v>44200</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="K13" t="n">
         <v>1400</v>
@@ -1302,7 +1302,7 @@
         <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1438</v>
+        <v>1450</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44537</v>
+        <v>44210</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K14" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L14" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M14" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1350</v>
+        <v>1650</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45132</v>
+        <v>44893</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>170</v>
+        <v>3300</v>
       </c>
       <c r="K15" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="M15" t="n">
-        <v>2359</v>
+        <v>1261</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2359</v>
+        <v>1261</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44907</v>
+        <v>45210</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2300</v>
+        <v>550</v>
       </c>
       <c r="K16" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M16" t="n">
-        <v>952</v>
+        <v>1536</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>952</v>
+        <v>1536</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44883</v>
+        <v>45233</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>290</v>
+        <v>1050</v>
       </c>
       <c r="K17" t="n">
         <v>1400</v>
@@ -1590,7 +1590,7 @@
         <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44638</v>
+        <v>44895</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L18" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="M18" t="n">
-        <v>2650</v>
+        <v>1255</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2650</v>
+        <v>1255</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45212</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>750</v>
+        <v>3300</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1440</v>
+        <v>1261</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1440</v>
+        <v>1261</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45132</v>
+        <v>45210</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>170</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>2359</v>
+        <v>1536</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2359</v>
+        <v>1536</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45205</v>
+        <v>45203</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1457</v>
+        <v>1900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1457</v>
+        <v>1900</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>45205</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1457</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1457</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44883</v>
+        <v>45062</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>1700</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M8" t="n">
-        <v>1434</v>
+        <v>2900</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1434</v>
+        <v>2900</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45062</v>
+        <v>44895</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2900</v>
+        <v>1255</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45203</v>
+        <v>44210</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>1450</v>
       </c>
       <c r="K10" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M10" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44638</v>
+        <v>45212</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>2650</v>
+        <v>1440</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2650</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44907</v>
+        <v>44200</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K12" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>952</v>
+        <v>1450</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>952</v>
+        <v>1450</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44200</v>
+        <v>45233</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1500</v>
+        <v>1050</v>
       </c>
       <c r="K13" t="n">
         <v>1400</v>
@@ -1302,7 +1302,7 @@
         <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44210</v>
+        <v>44537</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L14" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M14" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1650</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44893</v>
+        <v>45132</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3300</v>
+        <v>170</v>
       </c>
       <c r="K15" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="L15" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>1261</v>
+        <v>2359</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1261</v>
+        <v>2359</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45210</v>
+        <v>44907</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>550</v>
+        <v>2300</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L16" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>1536</v>
+        <v>952</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1536</v>
+        <v>952</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45233</v>
+        <v>44883</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1050</v>
+        <v>290</v>
       </c>
       <c r="K17" t="n">
         <v>1400</v>
@@ -1590,7 +1590,7 @@
         <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44895</v>
+        <v>44638</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K18" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M18" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1255</v>
+        <v>2650</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45212</v>
+        <v>45257</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M2" t="n">
-        <v>1440</v>
+        <v>1150</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1440</v>
+        <v>1150</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45132</v>
+        <v>45212</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>170</v>
+        <v>750</v>
       </c>
       <c r="K3" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>2359</v>
+        <v>1440</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2359</v>
+        <v>1440</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45205</v>
+        <v>45132</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>3500</v>
+        <v>170</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M4" t="n">
-        <v>1457</v>
+        <v>2359</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1457</v>
+        <v>2359</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44537</v>
+        <v>45205</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1457</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1457</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44175</v>
+        <v>44537</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
+        <v>800</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L6" t="n">
         <v>1400</v>
       </c>
-      <c r="K6" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2000</v>
-      </c>
       <c r="M6" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1950</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45204</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K7" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L7" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1650</v>
+        <v>1950</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44883</v>
+        <v>45204</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>1200</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M8" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45062</v>
+        <v>44883</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1700</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2900</v>
+        <v>1434</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45203</v>
+        <v>45062</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K10" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M10" t="n">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44638</v>
+        <v>45203</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1152,13 +1152,13 @@
         <v>800</v>
       </c>
       <c r="K11" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L11" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>2650</v>
+        <v>1900</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2650</v>
+        <v>1900</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44907</v>
+        <v>44638</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="L12" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M12" t="n">
-        <v>952</v>
+        <v>2650</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>952</v>
+        <v>2650</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44200</v>
+        <v>44907</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>952</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44210</v>
+        <v>44200</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,17 +1365,17 @@
         </is>
       </c>
       <c r="J14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M14" t="n">
         <v>1450</v>
       </c>
-      <c r="K14" t="n">
-        <v>1600</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1700</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1650</v>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>$/kilo</t>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44893</v>
+        <v>44210</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3300</v>
+        <v>1450</v>
       </c>
       <c r="K15" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L15" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M15" t="n">
-        <v>1261</v>
+        <v>1650</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1261</v>
+        <v>1650</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45210</v>
+        <v>44893</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>550</v>
+        <v>3300</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L16" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M16" t="n">
-        <v>1536</v>
+        <v>1261</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1536</v>
+        <v>1261</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45233</v>
+        <v>45210</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1050</v>
+        <v>550</v>
       </c>
       <c r="K17" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1438</v>
+        <v>1536</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1438</v>
+        <v>1536</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44895</v>
+        <v>45233</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,34 +1653,106 @@
         </is>
       </c>
       <c r="J18" t="n">
+        <v>1050</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1438</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1438</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112030</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Poroto granado</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>200</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>1200</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>1300</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M19" t="n">
         <v>1255</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>1255</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45257</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="K2" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1150</v>
+        <v>1261</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1150</v>
+        <v>1261</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45212</v>
+        <v>45257</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M3" t="n">
-        <v>1440</v>
+        <v>1150</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1440</v>
+        <v>1150</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45132</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>170</v>
+        <v>2300</v>
       </c>
       <c r="K4" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>2359</v>
+        <v>952</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2359</v>
+        <v>952</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45205</v>
+        <v>45062</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M5" t="n">
-        <v>1457</v>
+        <v>2900</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1457</v>
+        <v>2900</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44537</v>
+        <v>44638</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>800</v>
       </c>
       <c r="K6" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>45212</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
+        <v>750</v>
+      </c>
+      <c r="K7" t="n">
         <v>1400</v>
       </c>
-      <c r="K7" t="n">
-        <v>1900</v>
-      </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>1950</v>
+        <v>1440</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1950</v>
+        <v>1440</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45204</v>
+        <v>45210</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L8" t="n">
         <v>1600</v>
       </c>
-      <c r="L8" t="n">
-        <v>1700</v>
-      </c>
       <c r="M8" t="n">
-        <v>1650</v>
+        <v>1536</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1650</v>
+        <v>1536</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44883</v>
+        <v>44210</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>1450</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M9" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1434</v>
+        <v>1650</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45062</v>
+        <v>44537</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="L10" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="M10" t="n">
-        <v>2900</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2900</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K11" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M11" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1900</v>
+        <v>1650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44638</v>
+        <v>45203</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1224,13 +1224,13 @@
         <v>800</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L12" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>2650</v>
+        <v>1900</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2650</v>
+        <v>1900</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44907</v>
+        <v>44200</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K13" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>952</v>
+        <v>1450</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>952</v>
+        <v>1450</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44200</v>
+        <v>45233</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1500</v>
+        <v>1050</v>
       </c>
       <c r="K14" t="n">
         <v>1400</v>
@@ -1374,7 +1374,7 @@
         <v>1500</v>
       </c>
       <c r="M14" t="n">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44210</v>
+        <v>45205</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1450</v>
+        <v>3500</v>
       </c>
       <c r="K15" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L15" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M15" t="n">
-        <v>1650</v>
+        <v>1457</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1650</v>
+        <v>1457</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44893</v>
+        <v>44175</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="K16" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="L16" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M16" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1261</v>
+        <v>1950</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45210</v>
+        <v>44895</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>1536</v>
+        <v>1255</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1536</v>
+        <v>1255</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45233</v>
+        <v>45132</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1050</v>
+        <v>170</v>
       </c>
       <c r="K18" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M18" t="n">
-        <v>1438</v>
+        <v>2359</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1438</v>
+        <v>2359</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44895</v>
+        <v>44883</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K19" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L19" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M19" t="n">
-        <v>1255</v>
+        <v>1434</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1255</v>
+        <v>1434</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Poroto granado.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>1200</v>
@@ -510,7 +510,7 @@
         <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45257</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="K3" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1150</v>
+        <v>1261</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1150</v>
+        <v>1261</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>45062</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>952</v>
+        <v>2900</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>952</v>
+        <v>2900</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45062</v>
+        <v>45233</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1700</v>
+        <v>1050</v>
       </c>
       <c r="K5" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>2900</v>
+        <v>1438</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2900</v>
+        <v>1438</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44638</v>
+        <v>45210</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M6" t="n">
-        <v>2650</v>
+        <v>1536</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2650</v>
+        <v>1536</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45212</v>
+        <v>44907</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>750</v>
+        <v>2300</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M7" t="n">
-        <v>1440</v>
+        <v>952</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1440</v>
+        <v>952</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45210</v>
+        <v>45205</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>3500</v>
       </c>
       <c r="K8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L8" t="n">
         <v>1500</v>
       </c>
-      <c r="L8" t="n">
-        <v>1600</v>
-      </c>
       <c r="M8" t="n">
-        <v>1536</v>
+        <v>1457</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1536</v>
+        <v>1457</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44210</v>
+        <v>44883</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1450</v>
+        <v>290</v>
       </c>
       <c r="K9" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1650</v>
+        <v>1434</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1650</v>
+        <v>1434</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44537</v>
+        <v>44175</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K10" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="L10" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1950</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45204</v>
+        <v>44200</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K11" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45203</v>
+        <v>45212</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="K12" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>1900</v>
+        <v>1440</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1900</v>
+        <v>1440</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44200</v>
+        <v>45132</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1500</v>
+        <v>170</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>2359</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>2359</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45233</v>
+        <v>44537</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="K14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L14" t="n">
         <v>1400</v>
       </c>
-      <c r="L14" t="n">
-        <v>1500</v>
-      </c>
       <c r="M14" t="n">
-        <v>1438</v>
+        <v>1350</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1438</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="K15" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L15" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M15" t="n">
-        <v>1457</v>
+        <v>1650</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1457</v>
+        <v>1650</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44175</v>
+        <v>45257</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K16" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="L16" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M16" t="n">
-        <v>1950</v>
+        <v>1150</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1950</v>
+        <v>1150</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44895</v>
+        <v>44210</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>1450</v>
       </c>
       <c r="K17" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L17" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M17" t="n">
-        <v>1255</v>
+        <v>1650</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1255</v>
+        <v>1650</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45132</v>
+        <v>45203</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>170</v>
+        <v>800</v>
       </c>
       <c r="K18" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>2359</v>
+        <v>1900</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2359</v>
+        <v>1900</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44883</v>
+        <v>44638</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>290</v>
+        <v>800</v>
       </c>
       <c r="K19" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M19" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1434</v>
+        <v>2650</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
